--- a/Gestion/Risques.xlsx
+++ b/Gestion/Risques.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="19126"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\21703858t.UNIV-TOURS\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TANGU\TANGU\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF00CCBC-921B-42FB-961C-4F3D686821D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -122,7 +123,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -566,11 +567,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I1" sqref="I1"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="A11" sqref="A11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -998,11 +999,35 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10"/>
-      <c r="D10"/>
-      <c r="E10"/>
-      <c r="F10"/>
+    <row r="10" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="8"/>
+      <c r="D10" s="8"/>
+      <c r="E10" s="8"/>
+      <c r="F10" s="9"/>
+      <c r="G10" s="13"/>
+      <c r="H10"/>
+      <c r="I10"/>
+      <c r="J10"/>
+      <c r="K10"/>
+      <c r="L10"/>
+      <c r="M10"/>
+      <c r="N10"/>
+      <c r="O10"/>
+      <c r="P10"/>
+      <c r="Q10"/>
+      <c r="R10"/>
+      <c r="S10"/>
+      <c r="T10"/>
+      <c r="U10"/>
+      <c r="V10"/>
+      <c r="W10"/>
+      <c r="X10"/>
+      <c r="Y10"/>
+      <c r="Z10"/>
+      <c r="AA10"/>
+      <c r="AB10"/>
+      <c r="AC10"/>
+      <c r="AD10"/>
     </row>
     <row r="11" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>
     <row r="12" spans="1:30" ht="15" customHeight="1" x14ac:dyDescent="0.25"/>

--- a/Gestion/Risques.xlsx
+++ b/Gestion/Risques.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\wamp64\www\TANGU\TANGU\Gestion\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{BF00CCBC-921B-42FB-961C-4F3D686821D7}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="10_ncr:100000_{81EA085D-21B0-46A2-83F3-6AD40D55CA5C}" xr6:coauthVersionLast="31" xr6:coauthVersionMax="31" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12585" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12225" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Feuil1" sheetId="1" r:id="rId1"/>
@@ -124,7 +124,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -161,6 +161,30 @@
     </font>
     <font>
       <sz val="22"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="16"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -244,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="15">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -256,9 +280,6 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -280,13 +301,31 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -570,17 +609,17 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:AD21"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="A11" sqref="A11"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="50.7109375" customWidth="1"/>
     <col min="2" max="2" width="30.7109375" customWidth="1"/>
-    <col min="3" max="4" width="20.7109375" style="7" customWidth="1"/>
-    <col min="5" max="5" width="22.7109375" style="7" customWidth="1"/>
-    <col min="6" max="6" width="20.7109375" style="7" customWidth="1"/>
+    <col min="3" max="4" width="20.7109375" style="6" customWidth="1"/>
+    <col min="5" max="5" width="22.7109375" style="6" customWidth="1"/>
+    <col min="6" max="6" width="20.7109375" style="6" customWidth="1"/>
     <col min="7" max="7" width="50.7109375" customWidth="1"/>
     <col min="8" max="11" width="12.7109375" customWidth="1"/>
   </cols>
@@ -592,19 +631,19 @@
       <c r="B1" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="6" t="s">
+      <c r="C1" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="6" t="s">
+      <c r="D1" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="6" t="s">
+      <c r="E1" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="F1" s="6" t="s">
+      <c r="F1" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="G1" s="14" t="s">
+      <c r="G1" s="12" t="s">
         <v>7</v>
       </c>
       <c r="H1"/>
@@ -631,26 +670,26 @@
       <c r="AC1"/>
       <c r="AD1"/>
     </row>
-    <row r="2" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="2" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="13" t="s">
         <v>11</v>
       </c>
-      <c r="B2" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C2" s="8">
+      <c r="B2" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="7">
         <v>3</v>
       </c>
-      <c r="D2" s="8">
+      <c r="D2" s="7">
         <v>1</v>
       </c>
-      <c r="E2" s="8">
-        <v>2</v>
-      </c>
-      <c r="F2" s="9">
-        <v>2</v>
-      </c>
-      <c r="G2" s="12" t="s">
+      <c r="E2" s="7">
+        <v>2</v>
+      </c>
+      <c r="F2" s="8">
+        <v>2</v>
+      </c>
+      <c r="G2" s="15" t="s">
         <v>9</v>
       </c>
       <c r="H2"/>
@@ -677,26 +716,26 @@
       <c r="AC2"/>
       <c r="AD2"/>
     </row>
-    <row r="3" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A3" s="5" t="s">
+    <row r="3" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
         <v>10</v>
       </c>
-      <c r="B3" s="5" t="s">
+      <c r="B3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C3" s="8">
-        <v>2</v>
-      </c>
-      <c r="D3" s="8">
-        <v>2</v>
-      </c>
-      <c r="E3" s="8">
-        <v>2</v>
-      </c>
-      <c r="F3" s="9">
-        <v>2</v>
-      </c>
-      <c r="G3" s="13" t="s">
+      <c r="C3" s="7">
+        <v>2</v>
+      </c>
+      <c r="D3" s="7">
+        <v>2</v>
+      </c>
+      <c r="E3" s="7">
+        <v>2</v>
+      </c>
+      <c r="F3" s="8">
+        <v>2</v>
+      </c>
+      <c r="G3" s="18" t="s">
         <v>12</v>
       </c>
       <c r="H3"/>
@@ -723,26 +762,26 @@
       <c r="AC3"/>
       <c r="AD3"/>
     </row>
-    <row r="4" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
+    <row r="4" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
         <v>15</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C4" s="8">
-        <v>2</v>
-      </c>
-      <c r="D4" s="8">
+      <c r="C4" s="7">
+        <v>2</v>
+      </c>
+      <c r="D4" s="7">
         <v>1</v>
       </c>
-      <c r="E4" s="8">
+      <c r="E4" s="7">
         <v>1</v>
       </c>
-      <c r="F4" s="10">
+      <c r="F4" s="9">
         <v>1</v>
       </c>
-      <c r="G4" s="13" t="s">
+      <c r="G4" s="16" t="s">
         <v>14</v>
       </c>
       <c r="H4"/>
@@ -769,26 +808,26 @@
       <c r="AC4"/>
       <c r="AD4"/>
     </row>
-    <row r="5" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="5" t="s">
+    <row r="5" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
         <v>16</v>
       </c>
-      <c r="B5" s="5" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="8">
+      <c r="B5" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="C5" s="7">
         <v>3</v>
       </c>
-      <c r="D5" s="8">
-        <v>2</v>
-      </c>
-      <c r="E5" s="8">
+      <c r="D5" s="7">
+        <v>2</v>
+      </c>
+      <c r="E5" s="7">
         <v>3</v>
       </c>
-      <c r="F5" s="11">
+      <c r="F5" s="10">
         <v>3</v>
       </c>
-      <c r="G5" s="12" t="s">
+      <c r="G5" s="19" t="s">
         <v>13</v>
       </c>
       <c r="H5"/>
@@ -815,26 +854,26 @@
       <c r="AC5"/>
       <c r="AD5"/>
     </row>
-    <row r="6" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="5" t="s">
+    <row r="6" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
         <v>17</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C6" s="8">
+      <c r="C6" s="7">
         <v>3</v>
       </c>
-      <c r="D6" s="8">
-        <v>2</v>
-      </c>
-      <c r="E6" s="8">
-        <v>2</v>
-      </c>
-      <c r="F6" s="9">
-        <v>2</v>
-      </c>
-      <c r="G6" s="12" t="s">
+      <c r="D6" s="7">
+        <v>2</v>
+      </c>
+      <c r="E6" s="7">
+        <v>2</v>
+      </c>
+      <c r="F6" s="8">
+        <v>2</v>
+      </c>
+      <c r="G6" s="17" t="s">
         <v>19</v>
       </c>
       <c r="H6"/>
@@ -861,26 +900,26 @@
       <c r="AC6"/>
       <c r="AD6"/>
     </row>
-    <row r="7" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="5" t="s">
+    <row r="7" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
         <v>21</v>
       </c>
-      <c r="B7" s="5" t="s">
+      <c r="B7" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="C7" s="8">
-        <v>2</v>
-      </c>
-      <c r="D7" s="8">
+      <c r="C7" s="7">
+        <v>2</v>
+      </c>
+      <c r="D7" s="7">
         <v>3</v>
       </c>
-      <c r="E7" s="8">
-        <v>2</v>
-      </c>
-      <c r="F7" s="9">
-        <v>2</v>
-      </c>
-      <c r="G7" s="13" t="s">
+      <c r="E7" s="7">
+        <v>2</v>
+      </c>
+      <c r="F7" s="8">
+        <v>2</v>
+      </c>
+      <c r="G7" s="18" t="s">
         <v>22</v>
       </c>
       <c r="H7"/>
@@ -907,26 +946,26 @@
       <c r="AC7"/>
       <c r="AD7"/>
     </row>
-    <row r="8" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="5" t="s">
+    <row r="8" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
         <v>24</v>
       </c>
-      <c r="B8" s="5" t="s">
+      <c r="B8" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="C8" s="8">
-        <v>2</v>
-      </c>
-      <c r="D8" s="8">
+      <c r="C8" s="7">
+        <v>2</v>
+      </c>
+      <c r="D8" s="7">
         <v>3</v>
       </c>
-      <c r="E8" s="8">
-        <v>2</v>
-      </c>
-      <c r="F8" s="9">
-        <v>2</v>
-      </c>
-      <c r="G8" s="13" t="s">
+      <c r="E8" s="7">
+        <v>2</v>
+      </c>
+      <c r="F8" s="8">
+        <v>2</v>
+      </c>
+      <c r="G8" s="16" t="s">
         <v>25</v>
       </c>
       <c r="H8"/>
@@ -953,26 +992,26 @@
       <c r="AC8"/>
       <c r="AD8"/>
     </row>
-    <row r="9" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A9" s="5" t="s">
+    <row r="9" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
         <v>26</v>
       </c>
-      <c r="B9" s="5" t="s">
+      <c r="B9" s="4" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="8">
+      <c r="C9" s="7">
         <v>1</v>
       </c>
-      <c r="D9" s="8">
-        <v>2</v>
-      </c>
-      <c r="E9" s="8">
+      <c r="D9" s="7">
+        <v>2</v>
+      </c>
+      <c r="E9" s="7">
         <v>3</v>
       </c>
-      <c r="F9" s="9">
-        <v>2</v>
-      </c>
-      <c r="G9" s="13" t="s">
+      <c r="F9" s="8">
+        <v>2</v>
+      </c>
+      <c r="G9" s="16" t="s">
         <v>27</v>
       </c>
       <c r="H9"/>
@@ -999,12 +1038,12 @@
       <c r="AC9"/>
       <c r="AD9"/>
     </row>
-    <row r="10" spans="1:30" s="5" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="C10" s="8"/>
-      <c r="D10" s="8"/>
-      <c r="E10" s="8"/>
-      <c r="F10" s="9"/>
-      <c r="G10" s="13"/>
+    <row r="10" spans="1:30" s="4" customFormat="1" ht="60" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C10" s="7"/>
+      <c r="D10" s="7"/>
+      <c r="E10" s="7"/>
+      <c r="F10" s="8"/>
+      <c r="G10" s="11"/>
       <c r="H10"/>
       <c r="I10"/>
       <c r="J10"/>
